--- a/pytest_project/excel_data/Video/video.xlsx
+++ b/pytest_project/excel_data/Video/video.xlsx
@@ -99,7 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>top: 7885.92px;</t>
+    <t>top: 7813.92px;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +683,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/pytest_project/excel_data/Video/video.xlsx
+++ b/pytest_project/excel_data/Video/video.xlsx
@@ -95,11 +95,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>top: 2258.92px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top: 7813.92px;</t>
+    <t>top: 7828.92px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top: 2250.92px;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +683,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -712,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/pytest_project/excel_data/Video/video.xlsx
+++ b/pytest_project/excel_data/Video/video.xlsx
@@ -95,11 +95,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>top: 7828.92px;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>top: 2250.92px;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top: 7805.92px;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +683,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -712,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/pytest_project/excel_data/Video/video.xlsx
+++ b/pytest_project/excel_data/Video/video.xlsx
@@ -99,7 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>top: 7805.92px;</t>
+    <t>top: 7828.92px;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +683,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
